--- a/biology/Botanique/Aeschynomene_afraspera/Aeschynomene_afraspera.xlsx
+++ b/biology/Botanique/Aeschynomene_afraspera/Aeschynomene_afraspera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeschynomene afraspera est une espèce de plantes de la famille des Fabaceae et du genre Aeschynomene, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeschynomene afraspera est une espèce de plantes de la famille des Fabaceae et du genre Aeschynomene, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste annuel atteignant 1-2 m, érigé ou semi-érigé[3], avec des tiges souples et moelleuses[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste annuel atteignant 1-2 m, érigé ou semi-érigé, avec des tiges souples et moelleuses.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante sub-saharienne à l'origine, présente du Sénégal au Soudan, elle s'est largement répandue dans les plaines tropicales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante sub-saharienne à l'origine, présente du Sénégal au Soudan, elle s'est largement répandue dans les plaines tropicales.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Semi-aquatique, on la rencontre dans les marécages et les endroits temporairement humides, au bord des lacs et des cours d'eau côtiers[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Semi-aquatique, on la rencontre dans les marécages et les endroits temporairement humides, au bord des lacs et des cours d'eau côtiers.
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capable de fixer facilement l'azote même en zone inondée ou pertubée, elle est de plus en plus fréquemment utilisée comme engrais vert en riziculture[2].
-La moelle est employée comme matériau d'isolation. Trempée dans l'huile, elle est utilisée comme torche[2].
-Récoltée à l'état sauvage, elle connaît quelques utilisations médicinales : la moelle des tiges, astringente, est utilisée en application externe[3] pour arrêter les saignements[2].
-La plante est broutée par les ruminants[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capable de fixer facilement l'azote même en zone inondée ou pertubée, elle est de plus en plus fréquemment utilisée comme engrais vert en riziculture.
+La moelle est employée comme matériau d'isolation. Trempée dans l'huile, elle est utilisée comme torche.
+Récoltée à l'état sauvage, elle connaît quelques utilisations médicinales : la moelle des tiges, astringente, est utilisée en application externe pour arrêter les saignements.
+La plante est broutée par les ruminants.
 </t>
         </is>
       </c>
